--- a/utilities/Excel_Sheets/Products/CYB_PIC.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_PIC.xlsx
@@ -557,33 +557,33 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="8">
-        <v>2</v>
-      </c>
-      <c r="C2" s="13">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
         <f ca="1">TODAY()</f>
-        <v>43250</v>
-      </c>
-      <c r="D2" s="7" t="s">
+        <v>43256</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="9">
-        <v>10000000</v>
-      </c>
-      <c r="H2" s="8">
-        <v>6</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>16</v>
+      <c r="G2" s="6">
+        <v>100000001</v>
+      </c>
+      <c r="H2" s="5">
+        <v>26</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -596,7 +596,7 @@
       </c>
       <c r="C4" s="10">
         <f ca="1">TODAY()</f>
-        <v>43250</v>
+        <v>43256</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>7</v>
@@ -611,10 +611,10 @@
         <v>10000000</v>
       </c>
       <c r="H4" s="5">
-        <v>6</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -627,7 +627,7 @@
       </c>
       <c r="C6" s="10">
         <f ca="1">TODAY()</f>
-        <v>43250</v>
+        <v>43256</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>7</v>
@@ -644,8 +644,8 @@
       <c r="H6" s="5">
         <v>5</v>
       </c>
-      <c r="I6" s="11" t="s">
-        <v>16</v>
+      <c r="I6" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
@@ -658,7 +658,7 @@
       </c>
       <c r="C8" s="10">
         <f ca="1">TODAY()</f>
-        <v>43250</v>
+        <v>43256</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>7</v>
@@ -689,7 +689,7 @@
       </c>
       <c r="C10" s="10">
         <f ca="1">TODAY()</f>
-        <v>43250</v>
+        <v>43256</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>7</v>
@@ -707,23 +707,23 @@
         <v>5</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="5">
         <v>1</v>
       </c>
       <c r="C12" s="10">
         <f ca="1">TODAY()</f>
-        <v>43250</v>
+        <v>43256</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>5</v>
@@ -737,55 +737,55 @@
       <c r="H12" s="5">
         <v>5</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="5">
-        <v>1</v>
-      </c>
-      <c r="C14" s="10">
+      <c r="A14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8">
+        <v>2</v>
+      </c>
+      <c r="C14" s="13">
         <f ca="1">TODAY()</f>
-        <v>43250</v>
-      </c>
-      <c r="D14" s="4" t="s">
+        <v>43256</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="E14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="9">
         <v>10000000</v>
       </c>
-      <c r="H14" s="5">
-        <v>5</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>19</v>
+      <c r="H14" s="8">
+        <v>5</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="8">
         <v>2</v>
       </c>
       <c r="C16" s="13">
         <f ca="1">TODAY()</f>
-        <v>43250</v>
+        <v>43256</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>5</v>
@@ -800,7 +800,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
